--- a/hardware/parts/Parts.xlsx
+++ b/hardware/parts/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBAC19F-C5F6-4B27-AA27-4C90DB6441EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1CB841-F676-4055-AB0E-8E69986D17CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14244" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{15D68DC7-770F-4EC0-8DFC-7BA9B78F8580}"/>
+    <workbookView xWindow="5760" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{15D68DC7-770F-4EC0-8DFC-7BA9B78F8580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="276">
   <si>
     <t>Reference Designator</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>C18</t>
-  </si>
-  <si>
-    <t>C14663</t>
   </si>
   <si>
     <t>C19</t>
@@ -1253,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D181B8E6-3771-4A93-B031-60F244DC73DC}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F121" sqref="A118:F121"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
@@ -1339,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
@@ -1360,10 +1357,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
@@ -1381,10 +1378,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
@@ -1402,10 +1399,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" t="s">
@@ -1423,10 +1420,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" t="s">
@@ -1444,10 +1441,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
@@ -1474,7 +1471,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1494,7 +1491,7 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1659,170 +1656,170 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" t="s">
         <v>87</v>
-      </c>
-      <c r="F26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
@@ -1831,18 +1828,18 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" t="s">
         <v>89</v>
-      </c>
-      <c r="F28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>19</v>
@@ -1851,18 +1848,18 @@
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
         <v>89</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>19</v>
@@ -1871,78 +1868,78 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
         <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>19</v>
@@ -1951,18 +1948,18 @@
         <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" t="s">
         <v>89</v>
-      </c>
-      <c r="F34" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>38</v>
@@ -1977,12 +1974,12 @@
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
@@ -1997,32 +1994,32 @@
         <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
         <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -2034,15 +2031,15 @@
         <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
@@ -2054,35 +2051,35 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
         <v>95</v>
-      </c>
-      <c r="F40" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>38</v>
@@ -2094,75 +2091,75 @@
         <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>22</v>
@@ -2174,15 +2171,15 @@
         <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>22</v>
@@ -2194,35 +2191,35 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" t="s">
         <v>110</v>
       </c>
-      <c r="F47" t="s">
-        <v>111</v>
-      </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>27</v>
@@ -2231,458 +2228,458 @@
         <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
         <v>119</v>
       </c>
-      <c r="F50" t="s">
-        <v>120</v>
-      </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" t="s">
         <v>124</v>
       </c>
-      <c r="F51" t="s">
-        <v>125</v>
-      </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
         <v>141</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" t="s">
-        <v>142</v>
-      </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F59" t="s">
-        <v>145</v>
-      </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F62" t="s">
-        <v>145</v>
-      </c>
       <c r="G62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F63" t="s">
-        <v>145</v>
-      </c>
       <c r="G63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F64" t="s">
         <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="F65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="F66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="F67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="F69" t="s">
         <v>163</v>
       </c>
-      <c r="F69" t="s">
-        <v>164</v>
-      </c>
       <c r="G69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="F70" t="s">
         <v>167</v>
       </c>
-      <c r="F70" t="s">
-        <v>168</v>
-      </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" s="2">
         <v>47</v>
@@ -2691,658 +2688,658 @@
         <v>11</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="s">
         <v>170</v>
       </c>
-      <c r="F71" t="s">
-        <v>171</v>
-      </c>
       <c r="G71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="F72" t="s">
         <v>174</v>
       </c>
-      <c r="F72" t="s">
-        <v>175</v>
-      </c>
       <c r="G72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G73" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G93" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="F95" t="s">
         <v>209</v>
       </c>
-      <c r="F95" t="s">
-        <v>210</v>
-      </c>
       <c r="G95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="F96" t="s">
         <v>209</v>
       </c>
-      <c r="F96" t="s">
-        <v>210</v>
-      </c>
       <c r="G96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="F97" t="s">
         <v>209</v>
       </c>
-      <c r="F97" t="s">
-        <v>210</v>
-      </c>
       <c r="G97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="F98" t="s">
         <v>209</v>
       </c>
-      <c r="F98" t="s">
-        <v>210</v>
-      </c>
       <c r="G98" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="F99" t="s">
         <v>174</v>
       </c>
-      <c r="F99" t="s">
-        <v>175</v>
-      </c>
       <c r="G99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="F100" t="s">
         <v>209</v>
       </c>
-      <c r="F100" t="s">
-        <v>210</v>
-      </c>
       <c r="G100" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="F101" t="s">
         <v>209</v>
       </c>
-      <c r="F101" t="s">
-        <v>210</v>
-      </c>
       <c r="G101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="F102" t="s">
         <v>209</v>
       </c>
-      <c r="F102" t="s">
-        <v>210</v>
-      </c>
       <c r="G102" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="F103" t="s">
         <v>216</v>
       </c>
-      <c r="F103" t="s">
-        <v>217</v>
-      </c>
       <c r="G103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B104" s="2">
         <v>47</v>
@@ -3351,110 +3348,110 @@
         <v>23</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="F105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B107" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F107" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>223</v>
-      </c>
-      <c r="G107" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="F108" t="s">
         <v>227</v>
       </c>
-      <c r="F108" t="s">
-        <v>228</v>
-      </c>
       <c r="G108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="F109" t="s">
         <v>234</v>
-      </c>
-      <c r="F109" t="s">
-        <v>235</v>
       </c>
       <c r="G109" t="s">
         <v>46</v>
@@ -3462,19 +3459,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>235</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="F110" t="s">
         <v>238</v>
-      </c>
-      <c r="F110" t="s">
-        <v>239</v>
       </c>
       <c r="G110" t="s">
         <v>46</v>
@@ -3482,170 +3479,170 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>239</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="F111" t="s">
         <v>243</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>244</v>
-      </c>
-      <c r="G111" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="G112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113" t="s">
+        <v>250</v>
+      </c>
+      <c r="G113" t="s">
+        <v>117</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F113" t="s">
-        <v>251</v>
-      </c>
-      <c r="G113" t="s">
-        <v>118</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F114" t="s">
+        <v>257</v>
+      </c>
+      <c r="G114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F114" t="s">
-        <v>258</v>
-      </c>
-      <c r="G114" t="s">
-        <v>118</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="F115" t="s">
         <v>262</v>
       </c>
-      <c r="F115" t="s">
-        <v>263</v>
-      </c>
       <c r="G115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>263</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" t="s">
         <v>266</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F116" t="s">
-        <v>267</v>
-      </c>
       <c r="G116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="F117" t="s">
         <v>272</v>
       </c>
-      <c r="F117" t="s">
-        <v>273</v>
-      </c>
       <c r="G117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="F118" t="s">
         <v>275</v>
       </c>
-      <c r="F118" t="s">
-        <v>276</v>
-      </c>
       <c r="G118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3662,113 +3659,123 @@
     <hyperlink ref="D17" r:id="rId9" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21A226MAQNNNE_22uF-226-20-25V_C45783.html/?href=jlc-SMT" xr:uid="{77B26F62-6B5B-47DD-9713-9C77B69DAC68}"/>
     <hyperlink ref="D18" r:id="rId10" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21A226MAQNNNE_22uF-226-20-25V_C45783.html/?href=jlc-SMT" xr:uid="{5CEE53D3-93BB-4898-A78E-B824EF492B70}"/>
     <hyperlink ref="D19" r:id="rId11" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21A226MAQNNNE_22uF-226-20-25V_C45783.html/?href=jlc-SMT" xr:uid="{E6517C33-B5DC-4D0C-B8B8-4017294CB94B}"/>
-    <hyperlink ref="D3" r:id="rId12" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{CA4DB941-D85A-4956-B535-2ED61E9A8F77}"/>
-    <hyperlink ref="D4" r:id="rId13" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{61A11931-EAF3-453A-875E-8AA342AD772C}"/>
-    <hyperlink ref="D5" r:id="rId14" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{D3DF4D84-C94A-41B2-9EDA-BDB4CFB1A260}"/>
-    <hyperlink ref="D6" r:id="rId15" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{10C70736-F918-4BD7-A2B6-70107804CABF}"/>
-    <hyperlink ref="D7" r:id="rId16" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{7E54E7FA-E34B-4EF7-9077-C0A057C5D217}"/>
-    <hyperlink ref="D8" r:id="rId17" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{F2AE4B79-605C-48DD-BAA3-20DFC6FF539F}"/>
-    <hyperlink ref="D9" r:id="rId18" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{C6C14865-DC07-4207-9C46-E4FBAC93FF61}"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{DBE955D8-11EE-446B-B5B6-3597E17A2A3C}"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{4BF8A69D-7DDC-48CD-B2E5-F2282592D755}"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{C554B7C2-A400-4207-A658-7EFF1D5CEE8D}"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_2-2nF-222-10-50V_C1604.html/?href=jlc-SMT" xr:uid="{F2E4924E-CBFF-4673-9E2F-E566A37DAE8B}"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{19CD1D60-4F6C-49EF-85CC-7D34197A7243}"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{554C399A-40E5-4876-8209-6D3CBD8A780D}"/>
-    <hyperlink ref="D27" r:id="rId25" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_100nF-104-10-50V_C14663.html/?href=jlc-SMT" xr:uid="{D29B042E-DF72-4AA3-840D-3AAAE1525327}"/>
-    <hyperlink ref="D26" r:id="rId26" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21A106KAYNNNE_10uF-106-10-25V_C15850.html/?href=jlc-SMT" xr:uid="{E79B456F-DF3C-41CA-9EC5-3A1854B1DC54}"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{DCCF458A-86AB-416E-9799-D1F946D39220}"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{0AAB52A2-771F-4437-8EC6-5FD22F8F443A}"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{387C0684-E2FA-4774-A36D-59AD787F5053}"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_220pF-221-10-50V_C1530.html/?href=jlc-SMT" xr:uid="{59B80CC8-B5B1-44E2-AC3B-A8067C72598C}"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_220pF-221-10-50V_C1530.html/?href=jlc-SMT" xr:uid="{02373A8F-5C04-4A7D-8922-00B5BA03E4E3}"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_220pF-221-10-50V_C1530.html/?href=jlc-SMT" xr:uid="{052CCF65-8CBF-4B98-8A5F-D05A93AF4B62}"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{0D80AB30-8E3C-4F13-8645-748AC65A1F08}"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{4669F01F-2F99-46FB-A6DA-4DCF89BBD5B8}"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{93D53298-3C35-4419-92C7-B1A8300DE74F}"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_1nF-102-10-50V_C1523.html/?href=jlc-SMT" xr:uid="{CFC1F65C-5C26-4006-B7FA-F1EEDBF6C82E}"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{AF50C486-1405-4EC2-970E-49E66CC8DBC8}"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05A105KA5NQNC_1uF-105-10-25V_C52923.html/?href=jlc-SMT" xr:uid="{80642DC3-9E7A-4E9C-ABFD-3E7C4668ED7F}"/>
-    <hyperlink ref="D41" r:id="rId39" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{C7F02ACA-B30A-44A4-B42F-BCA2A7636ED8}"/>
-    <hyperlink ref="D40" r:id="rId40" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_1nF-102-10-50V_C1523.html/?href=jlc-SMT" xr:uid="{EEBC0943-269F-49BB-89AA-8935DDE4101F}"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_2-2pF-2R2-0-25pF-50V_C1559.html/?href=jlc-SMT" xr:uid="{3821E901-7869-4BE2-ADF8-578AF88FC962}"/>
-    <hyperlink ref="D44" r:id="rId42" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_18pF-180-5-50V_C1549.html/?href=jlc-SMT" xr:uid="{F6F7D85F-95BA-4C7C-85A7-01FF8392CBA8}"/>
-    <hyperlink ref="D43" r:id="rId43" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GJM1555C1HR10WB01D_C161338.html/?href=jlc-SMT" xr:uid="{F7C41DA5-4377-4225-B264-397DCA9D8552}"/>
-    <hyperlink ref="D45" r:id="rId44" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05A105KA5NQNC_1uF-105-10-25V_C52923.html/?href=jlc-SMT" xr:uid="{3256BB23-11C3-4E1B-B78B-9A8A22DB09EE}"/>
-    <hyperlink ref="D46" r:id="rId45" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05A105KA5NQNC_1uF-105-10-25V_C52923.html/?href=jlc-SMT" xr:uid="{DA00E57D-90DB-4F73-A54D-0CE1604A2A2E}"/>
-    <hyperlink ref="D47" r:id="rId46" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_47pF-470-5-50V_C1567.html/?href=jlc-SMT" xr:uid="{ECE83CA2-5625-47EC-B304-EA0614492E3D}"/>
-    <hyperlink ref="D48" r:id="rId47" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C10NJTDF_C27147.html/?href=jlc-SMT" xr:uid="{1DF8A7E8-E3AE-4027-BCD6-928334118A95}"/>
-    <hyperlink ref="D49" r:id="rId48" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0603-Green-light_C72043.html/?href=jlc-SMT" xr:uid="{15B1E95E-7299-469E-A437-5D21FC77AEE4}"/>
-    <hyperlink ref="D50" r:id="rId49" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Hubei-KENTO-Elec-KT-0603R_C2286.html/?href=jlc-SMT" xr:uid="{5D609E04-08AD-4DF0-A5EE-15804E3FBBEE}"/>
-    <hyperlink ref="D51" r:id="rId50" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_EKINGLUX-E6C0603SEAC1UDA_C375450.html/?href=jlc-SMT" xr:uid="{A56F321C-1FBF-4611-A52B-0EF9730F3235}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{9DDC487F-977C-4719-856E-F6FEDA7DB520}"/>
-    <hyperlink ref="D58" r:id="rId52" xr:uid="{748B6806-9D55-4EDD-99F9-2256F6C1A641}"/>
-    <hyperlink ref="D59" r:id="rId53" xr:uid="{E3D1158C-5CA3-4570-9AA9-9023A6FEB1F9}"/>
-    <hyperlink ref="D62" r:id="rId54" xr:uid="{DBB0C382-8559-49E6-A39E-4DBF75A8205D}"/>
-    <hyperlink ref="D63" r:id="rId55" xr:uid="{DD35EFC3-AC2A-4C17-9910-90E1A8B3990B}"/>
-    <hyperlink ref="D60" r:id="rId56" xr:uid="{1EDA01AB-FBF7-43ED-9AFA-B8CDE41C9140}"/>
-    <hyperlink ref="D61" r:id="rId57" xr:uid="{435F8B9B-278E-4825-9298-39491C2B2727}"/>
-    <hyperlink ref="D64" r:id="rId58" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C39NJTDF_C26443.html/?href=jlc-SMT" xr:uid="{E5820112-26BE-452E-AB6F-628C4B2EDF2D}"/>
-    <hyperlink ref="D65" r:id="rId59" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C4N7STDF_C13595.html/?href=jlc-SMT" xr:uid="{C3472C7B-EDEC-4308-A347-2BACFDA1713B}"/>
-    <hyperlink ref="D66" r:id="rId60" display="https://lcsc.com/product-detail/HF-Inductors_Murata-Electronics_LQG15HS1N0S02D_Murata-Electronics-LQG15HS1N0S02D_C18222.html/?href=jlc-SMT" xr:uid="{F0E6495C-16BC-4D12-9204-E70542B847EE}"/>
-    <hyperlink ref="D67" r:id="rId61" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C1N8STDF_C18304.html/?href=jlc-SMT" xr:uid="{E68421C6-F04F-461F-BE02-38DF45A8BB2B}"/>
-    <hyperlink ref="D68" r:id="rId62" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1608C27NJTDF_C12100.html/?href=jlc-SMT" xr:uid="{6F315418-7930-4D8D-A7B3-EBBDDC046B20}"/>
-    <hyperlink ref="D69" r:id="rId63" display="https://lcsc.com/product-detail/MOSFET_Alpha-Omega-Semicon_AO3401A_Alpha-Omega-Semicon-AOS-AO3401A_C15127.html/?href=jlc-SMT" xr:uid="{9F0D050A-2B19-44D1-B82E-04CE79EF5C80}"/>
-    <hyperlink ref="D70" r:id="rId64" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1002TCE_C25744.html/?href=jlc-SMT" xr:uid="{91F0E965-6892-4E50-8199-95C1418A2DAB}"/>
-    <hyperlink ref="D71" r:id="rId65" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0805W8F470JT5E_C17714.html/?href=jlc-SMT" xr:uid="{2809CC4A-A974-4A27-89FA-B0A7D1FCB8EB}"/>
-    <hyperlink ref="D72" r:id="rId66" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1001TCE_C11702.html/?href=jlc-SMT" xr:uid="{8E00C76E-3DC1-469F-9613-3ED1BCC87777}"/>
-    <hyperlink ref="D73" r:id="rId67" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{D510D02A-3811-4E22-94CE-B5D8C855C848}"/>
-    <hyperlink ref="D74" r:id="rId68" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{A7D399F2-3328-42AB-8513-FED0DE5C8707}"/>
-    <hyperlink ref="D75" r:id="rId69" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{88D2E5AB-6BE4-4608-A52F-F64BEA2A68CA}"/>
-    <hyperlink ref="D76" r:id="rId70" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{78ED43F5-CF58-4AF0-A03C-257535C1C87B}"/>
-    <hyperlink ref="D77" r:id="rId71" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{9F872196-180E-4C80-A3A8-3DD8C066C2E9}"/>
-    <hyperlink ref="D78" r:id="rId72" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{C2AB56A9-61D5-48CD-AC90-276D7D7E04E0}"/>
-    <hyperlink ref="D79" r:id="rId73" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{846EE48B-F635-45DB-BE5B-3EBB79AF3569}"/>
-    <hyperlink ref="D80" r:id="rId74" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{D5B33C36-4098-4A28-A081-B0067B7EC0CF}"/>
-    <hyperlink ref="D81" r:id="rId75" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{CEAA0BB2-7128-4A7E-9A52-8ACB30DDECCB}"/>
-    <hyperlink ref="D82" r:id="rId76" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{2E06F9E5-8B55-4A32-8A59-F18CA60B1809}"/>
-    <hyperlink ref="D83" r:id="rId77" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{CC11A193-7BD5-4BB5-AE82-BBAD9456C83C}"/>
-    <hyperlink ref="D84" r:id="rId78" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{3B8C7B5F-A012-4569-AE67-EA7E941CFF67}"/>
-    <hyperlink ref="D85" r:id="rId79" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{7D5D5771-8841-4C25-BFF7-04808132ABE5}"/>
-    <hyperlink ref="D86" r:id="rId80" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{C3743F72-2A73-474E-982E-ED8B00C6F9BF}"/>
-    <hyperlink ref="D87" r:id="rId81" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{7CE96E79-266C-477D-8840-A0F40D0753CB}"/>
-    <hyperlink ref="D88" r:id="rId82" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{5C57A805-A27B-4FC1-B3C6-DDEFAD09235B}"/>
-    <hyperlink ref="D89" r:id="rId83" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{663CE9E2-0932-4E5B-9783-1E9D79730AFC}"/>
-    <hyperlink ref="D90" r:id="rId84" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{262D6504-07D8-4D44-A79F-413268ABEA34}"/>
-    <hyperlink ref="D91" r:id="rId85" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{059896D2-C86C-46E6-A918-BC8C85826163}"/>
-    <hyperlink ref="D92" r:id="rId86" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{A821F3D4-3D9A-45DB-9403-ED750A13F02E}"/>
-    <hyperlink ref="D93" r:id="rId87" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{1F26101D-B3E8-404C-A2A2-FE3DD0DDC5D6}"/>
-    <hyperlink ref="D94" r:id="rId88" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{796E71DE-2239-46EB-A514-CECD1DEFA63F}"/>
-    <hyperlink ref="D99" r:id="rId89" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1001TCE_C11702.html/?href=jlc-SMT" xr:uid="{051F061C-DE3E-42C5-9FF0-E184567786DE}"/>
-    <hyperlink ref="D95" r:id="rId90" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{5C6FBD3D-563C-45DC-88B1-D7B67F55B108}"/>
-    <hyperlink ref="D96:D98" r:id="rId91" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{10440215-2E29-42A7-8BD1-D1FEC63A50B3}"/>
-    <hyperlink ref="D100" r:id="rId92" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{64841EC7-AA32-47E2-8504-8F361625326D}"/>
-    <hyperlink ref="D101:D102" r:id="rId93" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{DF40ED35-8CCC-4C46-BB7E-B86503718063}"/>
-    <hyperlink ref="D103" r:id="rId94" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF5602TCE_C25796.html/?href=jlc-SMT" xr:uid="{66A35609-AD82-4995-BA37-2795B95D88B2}"/>
-    <hyperlink ref="D105" r:id="rId95" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF3901TCE_C51721.html/?href=jlc-SMT" xr:uid="{E511C1B9-5CE6-43D2-88A7-EE2D8FF5A38C}"/>
-    <hyperlink ref="D106" r:id="rId96" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1002TCE_C25744.html/?href=jlc-SMT" xr:uid="{C41E5EEE-1C99-4F38-BF8B-F8E601EA695F}"/>
-    <hyperlink ref="D104" r:id="rId97" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF470JTCE_C25118.html/?href=jlc-SMT" xr:uid="{8675A7AF-01D2-4808-AE85-57282F9806F1}"/>
-    <hyperlink ref="D107" r:id="rId98" xr:uid="{A928FBB0-FBAF-4759-931A-556AD9F4359C}"/>
-    <hyperlink ref="D108" r:id="rId99" display="https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics_STM32F407VGT6_STM32F407VGT6_C12345.html/?href=jlc-SMT" xr:uid="{FF079FAB-EED7-421B-8DF7-058F8CD0A515}"/>
-    <hyperlink ref="D109" r:id="rId100" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_AMS_AMS1117-3-3_AMS1117-3-3_C6186.html/?href=jlc-SMT" xr:uid="{C88640B3-D15B-48A4-89D7-3412C4456249}"/>
-    <hyperlink ref="D110" r:id="rId101" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_AMS_AMS1117-5-0_AMS1117-5-0_C6187.html/?href=jlc-SMT" xr:uid="{4D468AE9-B2FF-4CF0-9C6B-626AADE8D825}"/>
-    <hyperlink ref="D111" r:id="rId102" display="https://lcsc.com/product-detail/Attitude-Sensors_TDK-InvenSense_MPU-6050_TDK-InvenSense-MPU-6050_C24112.html/?href=jlc-SMT" xr:uid="{29BA538D-A230-4C58-A40B-BEEFB6CF5182}"/>
-    <hyperlink ref="D112" r:id="rId103" display="https://lcsc.com/product-detail/FLASH_Winbond-Elec-W25N01GVZEIG_C88868.html/?href=jlc-SMT" xr:uid="{B5AD234F-BE13-44CB-A323-79CCC3A7F316}"/>
-    <hyperlink ref="H113" r:id="rId104" display="https://lcsc.com/product-detail/Sensors_FREESCALE_MPL3115A2R1_MPL3115A2R1_C54429.html/?href=jlc-SMT" xr:uid="{9410E4B7-FCD8-46D2-8753-EBD835E7DE9C}"/>
-    <hyperlink ref="D113" r:id="rId105" xr:uid="{0A004393-A8E8-487C-B8B0-84A159554335}"/>
-    <hyperlink ref="H114" r:id="rId106" display="https://lcsc.com/product-detail/RF-Chips_Texas-Instruments_CC2500RGPR_Texas-Instruments-TI-CC2500RGPR_C57494.html/?href=jlc-SMT" xr:uid="{4D765861-9E01-49A5-9428-ACA729A00DC6}"/>
-    <hyperlink ref="D114" r:id="rId107" xr:uid="{539A0D58-D948-4AD1-B1FD-B0A6F8687637}"/>
-    <hyperlink ref="D115" r:id="rId108" display="https://lcsc.com/product-detail/RF-Transceiver-ICs_Texas-Instruments_CC2592RGVR_Texas-Instruments-TI-CC2592RGVR_C53274.html/?href=jlc-SMT" xr:uid="{67ABE811-0156-4B04-A7B9-CB402BA96858}"/>
-    <hyperlink ref="D116" r:id="rId109" xr:uid="{F43067F2-49FF-4F7C-94A2-CAA12E64CF29}"/>
-    <hyperlink ref="D117" r:id="rId110" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Yangxing-Tech-X322516MLB4SI_C13738.html/?href=jlc-SMT" xr:uid="{AFCEF283-9E23-4C17-AD98-C2B16E2C3008}"/>
-    <hyperlink ref="D118" r:id="rId111" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Yangxing-Tech-X322526MEB4SC_C23425.html/?href=jlc-SMT" xr:uid="{5C8D8D15-8C9E-4CAB-B7CC-92CEABBE5CD7}"/>
+    <hyperlink ref="D23" r:id="rId12" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_2-2nF-222-10-50V_C1604.html/?href=jlc-SMT" xr:uid="{F2E4924E-CBFF-4673-9E2F-E566A37DAE8B}"/>
+    <hyperlink ref="D26" r:id="rId13" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL21A106KAYNNNE_10uF-106-10-25V_C15850.html/?href=jlc-SMT" xr:uid="{E79B456F-DF3C-41CA-9EC5-3A1854B1DC54}"/>
+    <hyperlink ref="D28" r:id="rId14" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{DCCF458A-86AB-416E-9799-D1F946D39220}"/>
+    <hyperlink ref="D29" r:id="rId15" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{0AAB52A2-771F-4437-8EC6-5FD22F8F443A}"/>
+    <hyperlink ref="D30" r:id="rId16" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{387C0684-E2FA-4774-A36D-59AD787F5053}"/>
+    <hyperlink ref="D31" r:id="rId17" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_220pF-221-10-50V_C1530.html/?href=jlc-SMT" xr:uid="{59B80CC8-B5B1-44E2-AC3B-A8067C72598C}"/>
+    <hyperlink ref="D32" r:id="rId18" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_220pF-221-10-50V_C1530.html/?href=jlc-SMT" xr:uid="{02373A8F-5C04-4A7D-8922-00B5BA03E4E3}"/>
+    <hyperlink ref="D33" r:id="rId19" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_220pF-221-10-50V_C1530.html/?href=jlc-SMT" xr:uid="{052CCF65-8CBF-4B98-8A5F-D05A93AF4B62}"/>
+    <hyperlink ref="D34" r:id="rId20" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{0D80AB30-8E3C-4F13-8645-748AC65A1F08}"/>
+    <hyperlink ref="D35" r:id="rId21" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{4669F01F-2F99-46FB-A6DA-4DCF89BBD5B8}"/>
+    <hyperlink ref="D36" r:id="rId22" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{93D53298-3C35-4419-92C7-B1A8300DE74F}"/>
+    <hyperlink ref="D37" r:id="rId23" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_1nF-102-10-50V_C1523.html/?href=jlc-SMT" xr:uid="{CFC1F65C-5C26-4006-B7FA-F1EEDBF6C82E}"/>
+    <hyperlink ref="D38" r:id="rId24" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{AF50C486-1405-4EC2-970E-49E66CC8DBC8}"/>
+    <hyperlink ref="D39" r:id="rId25" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05A105KA5NQNC_1uF-105-10-25V_C52923.html/?href=jlc-SMT" xr:uid="{80642DC3-9E7A-4E9C-ABFD-3E7C4668ED7F}"/>
+    <hyperlink ref="D41" r:id="rId26" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_12pF-120-5-50V_C1547.html/?href=jlc-SMT" xr:uid="{C7F02ACA-B30A-44A4-B42F-BCA2A7636ED8}"/>
+    <hyperlink ref="D40" r:id="rId27" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_1nF-102-10-50V_C1523.html/?href=jlc-SMT" xr:uid="{EEBC0943-269F-49BB-89AA-8935DDE4101F}"/>
+    <hyperlink ref="D42" r:id="rId28" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_2-2pF-2R2-0-25pF-50V_C1559.html/?href=jlc-SMT" xr:uid="{3821E901-7869-4BE2-ADF8-578AF88FC962}"/>
+    <hyperlink ref="D44" r:id="rId29" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_18pF-180-5-50V_C1549.html/?href=jlc-SMT" xr:uid="{F6F7D85F-95BA-4C7C-85A7-01FF8392CBA8}"/>
+    <hyperlink ref="D43" r:id="rId30" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GJM1555C1HR10WB01D_C161338.html/?href=jlc-SMT" xr:uid="{F7C41DA5-4377-4225-B264-397DCA9D8552}"/>
+    <hyperlink ref="D45" r:id="rId31" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05A105KA5NQNC_1uF-105-10-25V_C52923.html/?href=jlc-SMT" xr:uid="{3256BB23-11C3-4E1B-B78B-9A8A22DB09EE}"/>
+    <hyperlink ref="D46" r:id="rId32" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05A105KA5NQNC_1uF-105-10-25V_C52923.html/?href=jlc-SMT" xr:uid="{DA00E57D-90DB-4F73-A54D-0CE1604A2A2E}"/>
+    <hyperlink ref="D47" r:id="rId33" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_47pF-470-5-50V_C1567.html/?href=jlc-SMT" xr:uid="{ECE83CA2-5625-47EC-B304-EA0614492E3D}"/>
+    <hyperlink ref="D48" r:id="rId34" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C10NJTDF_C27147.html/?href=jlc-SMT" xr:uid="{1DF8A7E8-E3AE-4027-BCD6-928334118A95}"/>
+    <hyperlink ref="D49" r:id="rId35" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_0603-Green-light_C72043.html/?href=jlc-SMT" xr:uid="{15B1E95E-7299-469E-A437-5D21FC77AEE4}"/>
+    <hyperlink ref="D50" r:id="rId36" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Hubei-KENTO-Elec-KT-0603R_C2286.html/?href=jlc-SMT" xr:uid="{5D609E04-08AD-4DF0-A5EE-15804E3FBBEE}"/>
+    <hyperlink ref="D51" r:id="rId37" display="https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_EKINGLUX-E6C0603SEAC1UDA_C375450.html/?href=jlc-SMT" xr:uid="{A56F321C-1FBF-4611-A52B-0EF9730F3235}"/>
+    <hyperlink ref="D52" r:id="rId38" xr:uid="{9DDC487F-977C-4719-856E-F6FEDA7DB520}"/>
+    <hyperlink ref="D58" r:id="rId39" xr:uid="{748B6806-9D55-4EDD-99F9-2256F6C1A641}"/>
+    <hyperlink ref="D59" r:id="rId40" xr:uid="{E3D1158C-5CA3-4570-9AA9-9023A6FEB1F9}"/>
+    <hyperlink ref="D62" r:id="rId41" xr:uid="{DBB0C382-8559-49E6-A39E-4DBF75A8205D}"/>
+    <hyperlink ref="D63" r:id="rId42" xr:uid="{DD35EFC3-AC2A-4C17-9910-90E1A8B3990B}"/>
+    <hyperlink ref="D60" r:id="rId43" xr:uid="{1EDA01AB-FBF7-43ED-9AFA-B8CDE41C9140}"/>
+    <hyperlink ref="D61" r:id="rId44" xr:uid="{435F8B9B-278E-4825-9298-39491C2B2727}"/>
+    <hyperlink ref="D64" r:id="rId45" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C39NJTDF_C26443.html/?href=jlc-SMT" xr:uid="{E5820112-26BE-452E-AB6F-628C4B2EDF2D}"/>
+    <hyperlink ref="D65" r:id="rId46" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C4N7STDF_C13595.html/?href=jlc-SMT" xr:uid="{C3472C7B-EDEC-4308-A347-2BACFDA1713B}"/>
+    <hyperlink ref="D66" r:id="rId47" display="https://lcsc.com/product-detail/HF-Inductors_Murata-Electronics_LQG15HS1N0S02D_Murata-Electronics-LQG15HS1N0S02D_C18222.html/?href=jlc-SMT" xr:uid="{F0E6495C-16BC-4D12-9204-E70542B847EE}"/>
+    <hyperlink ref="D67" r:id="rId48" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1005C1N8STDF_C18304.html/?href=jlc-SMT" xr:uid="{E68421C6-F04F-461F-BE02-38DF45A8BB2B}"/>
+    <hyperlink ref="D68" r:id="rId49" display="https://lcsc.com/product-detail/HF-Inductors_Sunlord-SDCL1608C27NJTDF_C12100.html/?href=jlc-SMT" xr:uid="{6F315418-7930-4D8D-A7B3-EBBDDC046B20}"/>
+    <hyperlink ref="D69" r:id="rId50" display="https://lcsc.com/product-detail/MOSFET_Alpha-Omega-Semicon_AO3401A_Alpha-Omega-Semicon-AOS-AO3401A_C15127.html/?href=jlc-SMT" xr:uid="{9F0D050A-2B19-44D1-B82E-04CE79EF5C80}"/>
+    <hyperlink ref="D70" r:id="rId51" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1002TCE_C25744.html/?href=jlc-SMT" xr:uid="{91F0E965-6892-4E50-8199-95C1418A2DAB}"/>
+    <hyperlink ref="D71" r:id="rId52" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0805W8F470JT5E_C17714.html/?href=jlc-SMT" xr:uid="{2809CC4A-A974-4A27-89FA-B0A7D1FCB8EB}"/>
+    <hyperlink ref="D72" r:id="rId53" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1001TCE_C11702.html/?href=jlc-SMT" xr:uid="{8E00C76E-3DC1-469F-9613-3ED1BCC87777}"/>
+    <hyperlink ref="D73" r:id="rId54" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{D510D02A-3811-4E22-94CE-B5D8C855C848}"/>
+    <hyperlink ref="D74" r:id="rId55" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{A7D399F2-3328-42AB-8513-FED0DE5C8707}"/>
+    <hyperlink ref="D75" r:id="rId56" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{88D2E5AB-6BE4-4608-A52F-F64BEA2A68CA}"/>
+    <hyperlink ref="D76" r:id="rId57" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{78ED43F5-CF58-4AF0-A03C-257535C1C87B}"/>
+    <hyperlink ref="D77" r:id="rId58" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{9F872196-180E-4C80-A3A8-3DD8C066C2E9}"/>
+    <hyperlink ref="D78" r:id="rId59" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{C2AB56A9-61D5-48CD-AC90-276D7D7E04E0}"/>
+    <hyperlink ref="D79" r:id="rId60" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{846EE48B-F635-45DB-BE5B-3EBB79AF3569}"/>
+    <hyperlink ref="D80" r:id="rId61" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{D5B33C36-4098-4A28-A081-B0067B7EC0CF}"/>
+    <hyperlink ref="D81" r:id="rId62" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{CEAA0BB2-7128-4A7E-9A52-8ACB30DDECCB}"/>
+    <hyperlink ref="D82" r:id="rId63" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{2E06F9E5-8B55-4A32-8A59-F18CA60B1809}"/>
+    <hyperlink ref="D83" r:id="rId64" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{CC11A193-7BD5-4BB5-AE82-BBAD9456C83C}"/>
+    <hyperlink ref="D84" r:id="rId65" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{3B8C7B5F-A012-4569-AE67-EA7E941CFF67}"/>
+    <hyperlink ref="D85" r:id="rId66" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{7D5D5771-8841-4C25-BFF7-04808132ABE5}"/>
+    <hyperlink ref="D86" r:id="rId67" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{C3743F72-2A73-474E-982E-ED8B00C6F9BF}"/>
+    <hyperlink ref="D87" r:id="rId68" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{7CE96E79-266C-477D-8840-A0F40D0753CB}"/>
+    <hyperlink ref="D88" r:id="rId69" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{5C57A805-A27B-4FC1-B3C6-DDEFAD09235B}"/>
+    <hyperlink ref="D89" r:id="rId70" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{663CE9E2-0932-4E5B-9783-1E9D79730AFC}"/>
+    <hyperlink ref="D90" r:id="rId71" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{262D6504-07D8-4D44-A79F-413268ABEA34}"/>
+    <hyperlink ref="D91" r:id="rId72" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{059896D2-C86C-46E6-A918-BC8C85826163}"/>
+    <hyperlink ref="D92" r:id="rId73" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{A821F3D4-3D9A-45DB-9403-ED750A13F02E}"/>
+    <hyperlink ref="D93" r:id="rId74" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{1F26101D-B3E8-404C-A2A2-FE3DD0DDC5D6}"/>
+    <hyperlink ref="D94" r:id="rId75" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF220JTCE_C25092.html/?href=jlc-SMT" xr:uid="{796E71DE-2239-46EB-A514-CECD1DEFA63F}"/>
+    <hyperlink ref="D99" r:id="rId76" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1001TCE_C11702.html/?href=jlc-SMT" xr:uid="{051F061C-DE3E-42C5-9FF0-E184567786DE}"/>
+    <hyperlink ref="D95" r:id="rId77" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{5C6FBD3D-563C-45DC-88B1-D7B67F55B108}"/>
+    <hyperlink ref="D96:D98" r:id="rId78" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{10440215-2E29-42A7-8BD1-D1FEC63A50B3}"/>
+    <hyperlink ref="D100" r:id="rId79" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{64841EC7-AA32-47E2-8504-8F361625326D}"/>
+    <hyperlink ref="D101:D102" r:id="rId80" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF4701TCE_C25900.html/?href=jlc-SMT" xr:uid="{DF40ED35-8CCC-4C46-BB7E-B86503718063}"/>
+    <hyperlink ref="D103" r:id="rId81" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF5602TCE_C25796.html/?href=jlc-SMT" xr:uid="{66A35609-AD82-4995-BA37-2795B95D88B2}"/>
+    <hyperlink ref="D105" r:id="rId82" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF3901TCE_C51721.html/?href=jlc-SMT" xr:uid="{E511C1B9-5CE6-43D2-88A7-EE2D8FF5A38C}"/>
+    <hyperlink ref="D106" r:id="rId83" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF1002TCE_C25744.html/?href=jlc-SMT" xr:uid="{C41E5EEE-1C99-4F38-BF8B-F8E601EA695F}"/>
+    <hyperlink ref="D104" r:id="rId84" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Uniroyal-Elec-0402WGF470JTCE_C25118.html/?href=jlc-SMT" xr:uid="{8675A7AF-01D2-4808-AE85-57282F9806F1}"/>
+    <hyperlink ref="D107" r:id="rId85" xr:uid="{A928FBB0-FBAF-4759-931A-556AD9F4359C}"/>
+    <hyperlink ref="D108" r:id="rId86" display="https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics_STM32F407VGT6_STM32F407VGT6_C12345.html/?href=jlc-SMT" xr:uid="{FF079FAB-EED7-421B-8DF7-058F8CD0A515}"/>
+    <hyperlink ref="D109" r:id="rId87" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_AMS_AMS1117-3-3_AMS1117-3-3_C6186.html/?href=jlc-SMT" xr:uid="{C88640B3-D15B-48A4-89D7-3412C4456249}"/>
+    <hyperlink ref="D110" r:id="rId88" display="https://lcsc.com/product-detail/Low-Dropout-Regulators-LDO_AMS_AMS1117-5-0_AMS1117-5-0_C6187.html/?href=jlc-SMT" xr:uid="{4D468AE9-B2FF-4CF0-9C6B-626AADE8D825}"/>
+    <hyperlink ref="D111" r:id="rId89" display="https://lcsc.com/product-detail/Attitude-Sensors_TDK-InvenSense_MPU-6050_TDK-InvenSense-MPU-6050_C24112.html/?href=jlc-SMT" xr:uid="{29BA538D-A230-4C58-A40B-BEEFB6CF5182}"/>
+    <hyperlink ref="D112" r:id="rId90" display="https://lcsc.com/product-detail/FLASH_Winbond-Elec-W25N01GVZEIG_C88868.html/?href=jlc-SMT" xr:uid="{B5AD234F-BE13-44CB-A323-79CCC3A7F316}"/>
+    <hyperlink ref="H113" r:id="rId91" display="https://lcsc.com/product-detail/Sensors_FREESCALE_MPL3115A2R1_MPL3115A2R1_C54429.html/?href=jlc-SMT" xr:uid="{9410E4B7-FCD8-46D2-8753-EBD835E7DE9C}"/>
+    <hyperlink ref="D113" r:id="rId92" xr:uid="{0A004393-A8E8-487C-B8B0-84A159554335}"/>
+    <hyperlink ref="H114" r:id="rId93" display="https://lcsc.com/product-detail/RF-Chips_Texas-Instruments_CC2500RGPR_Texas-Instruments-TI-CC2500RGPR_C57494.html/?href=jlc-SMT" xr:uid="{4D765861-9E01-49A5-9428-ACA729A00DC6}"/>
+    <hyperlink ref="D114" r:id="rId94" xr:uid="{539A0D58-D948-4AD1-B1FD-B0A6F8687637}"/>
+    <hyperlink ref="D115" r:id="rId95" display="https://lcsc.com/product-detail/RF-Transceiver-ICs_Texas-Instruments_CC2592RGVR_Texas-Instruments-TI-CC2592RGVR_C53274.html/?href=jlc-SMT" xr:uid="{67ABE811-0156-4B04-A7B9-CB402BA96858}"/>
+    <hyperlink ref="D116" r:id="rId96" xr:uid="{F43067F2-49FF-4F7C-94A2-CAA12E64CF29}"/>
+    <hyperlink ref="D117" r:id="rId97" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Yangxing-Tech-X322516MLB4SI_C13738.html/?href=jlc-SMT" xr:uid="{AFCEF283-9E23-4C17-AD98-C2B16E2C3008}"/>
+    <hyperlink ref="D118" r:id="rId98" display="https://lcsc.com/product-detail/SMD-Crystal-Resonators_Yangxing-Tech-X322526MEB4SC_C23425.html/?href=jlc-SMT" xr:uid="{5C8D8D15-8C9E-4CAB-B7CC-92CEABBE5CD7}"/>
+    <hyperlink ref="D3" r:id="rId99" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{8833A834-89E4-4FC8-AE18-1D501717B49D}"/>
+    <hyperlink ref="D20" r:id="rId100" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{D212AD37-2141-4E02-9CD1-6FE05EE9DA92}"/>
+    <hyperlink ref="D21" r:id="rId101" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{FA7CC880-D27D-4023-8136-306901D2D3C3}"/>
+    <hyperlink ref="D22" r:id="rId102" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{59191488-15A4-443C-AACE-74ACC99423C2}"/>
+    <hyperlink ref="D24" r:id="rId103" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{05118BBC-FE14-4394-BC96-EA2BCCE3E953}"/>
+    <hyperlink ref="D4:D9" r:id="rId104" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{762A4A00-5288-4F1A-AD22-EC5BDA7C3ACA}"/>
+    <hyperlink ref="D25" r:id="rId105" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{2AD975E5-144E-4FD6-8FAC-52A21AE3CBE6}"/>
+    <hyperlink ref="D27" r:id="rId106" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL05B104KO5NNNC_100nF-104-10-16V_C1525.html/?href=jlc-SMT" xr:uid="{43AC85BC-B4E7-4E21-83AC-0B5DC6AFE853}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId112"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId107"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A026355BAD2274782A07C8F49662C6C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb6eea23527ae3a2f4369f132760501b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21dd6821-497d-487e-9974-da04441ecaef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3478fcf4c6a9925f36af177c8bf0c567" ns3:_="">
     <xsd:import namespace="21dd6821-497d-487e-9974-da04441ecaef"/>
@@ -3900,22 +3907,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD7D0BB-8B92-4CB9-B3D0-89246867E7A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="21dd6821-497d-487e-9974-da04441ecaef"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945E74FF-CF67-48D5-9BFC-8913C1D8D26C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4231A569-AFE9-4217-B34A-0C0809A85203}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3931,28 +3947,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945E74FF-CF67-48D5-9BFC-8913C1D8D26C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD7D0BB-8B92-4CB9-B3D0-89246867E7A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="21dd6821-497d-487e-9974-da04441ecaef"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/hardware/parts/Parts.xlsx
+++ b/hardware/parts/Parts.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mois\Documents\GitHub\Mercury\hardware\parts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal Projects\Project Mercury\Mercury\hardware\parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1CB841-F676-4055-AB0E-8E69986D17CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E34772-78BE-4278-8144-69C486BA248E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{15D68DC7-770F-4EC0-8DFC-7BA9B78F8580}"/>
+    <workbookView xWindow="-7710" yWindow="8730" windowWidth="21600" windowHeight="11385" xr2:uid="{15D68DC7-770F-4EC0-8DFC-7BA9B78F8580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -867,7 +865,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +894,18 @@
       <sz val="8"/>
       <color rgb="FF525252"/>
       <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF888888"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -926,13 +939,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1250,20 +1267,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D181B8E6-3771-4A93-B031-60F244DC73DC}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="3" width="22.6640625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1299,7 +1316,9 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="6">
+        <v>0.34399999999999997</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1320,7 +1339,9 @@
       <c r="D3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6">
+        <v>0.112</v>
+      </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1341,7 +1362,9 @@
       <c r="D4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="8">
+        <v>0.112</v>
+      </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -1349,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1362,7 +1385,9 @@
       <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="8">
+        <v>0.112</v>
+      </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1408,9 @@
       <c r="D6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="8">
+        <v>0.112</v>
+      </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
@@ -1391,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1431,9 @@
       <c r="D7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="8">
+        <v>0.112</v>
+      </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
@@ -1412,7 +1441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1454,9 @@
       <c r="D8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="8">
+        <v>0.112</v>
+      </c>
       <c r="F8" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1477,9 @@
       <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="8">
+        <v>0.112</v>
+      </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1467,6 +1500,9 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E10" s="7">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
@@ -1474,7 +1510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1487,6 +1523,9 @@
       <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E11" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="F11" t="s">
         <v>25</v>
       </c>
@@ -1494,7 +1533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1507,6 +1546,9 @@
       <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E12" s="7">
+        <v>0.214</v>
+      </c>
       <c r="F12" t="s">
         <v>33</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1527,6 +1569,9 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E13" s="7">
+        <v>0.214</v>
+      </c>
       <c r="F13" t="s">
         <v>33</v>
       </c>
@@ -1534,7 +1579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1547,6 +1592,9 @@
       <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E14" s="7">
+        <v>0.104</v>
+      </c>
       <c r="F14" t="s">
         <v>40</v>
       </c>
@@ -1554,7 +1602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1567,6 +1615,9 @@
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E15" s="8">
+        <v>0.104</v>
+      </c>
       <c r="F15" t="s">
         <v>40</v>
       </c>
@@ -1574,7 +1625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1587,6 +1638,9 @@
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E16" s="7">
+        <v>1.006</v>
+      </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
@@ -1594,7 +1648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1607,6 +1661,9 @@
       <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E17" s="8">
+        <v>1.006</v>
+      </c>
       <c r="F17" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1671,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1627,6 +1684,9 @@
       <c r="D18" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E18" s="8">
+        <v>1.006</v>
+      </c>
       <c r="F18" t="s">
         <v>45</v>
       </c>
@@ -1634,7 +1694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1647,6 +1707,9 @@
       <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E19" s="8">
+        <v>1.006</v>
+      </c>
       <c r="F19" t="s">
         <v>45</v>
       </c>
@@ -1654,7 +1717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1667,7 +1730,9 @@
       <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="6">
+        <v>0.112</v>
+      </c>
       <c r="F20" t="s">
         <v>53</v>
       </c>
@@ -1675,7 +1740,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1688,7 +1753,9 @@
       <c r="D21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="6">
+        <v>0.112</v>
+      </c>
       <c r="F21" t="s">
         <v>53</v>
       </c>
@@ -1696,7 +1763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1709,7 +1776,9 @@
       <c r="D22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="6">
+        <v>0.112</v>
+      </c>
       <c r="F22" t="s">
         <v>54</v>
       </c>
@@ -1717,7 +1786,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1730,6 +1799,9 @@
       <c r="D23" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E23" s="8">
+        <v>0.106</v>
+      </c>
       <c r="F23" t="s">
         <v>58</v>
       </c>
@@ -1737,7 +1809,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1750,6 +1822,9 @@
       <c r="D24" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E24" s="7">
+        <v>0.112</v>
+      </c>
       <c r="F24" t="s">
         <v>62</v>
       </c>
@@ -1757,7 +1832,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1770,6 +1845,9 @@
       <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E25" s="7">
+        <v>0.112</v>
+      </c>
       <c r="F25" t="s">
         <v>62</v>
       </c>
@@ -1777,7 +1855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -1790,6 +1868,9 @@
       <c r="D26" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="E26" s="8">
+        <v>0.51800000000000002</v>
+      </c>
       <c r="F26" t="s">
         <v>62</v>
       </c>
@@ -1797,7 +1878,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -1810,6 +1891,9 @@
       <c r="D27" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E27" s="7">
+        <v>0.112</v>
+      </c>
       <c r="F27" t="s">
         <v>62</v>
       </c>
@@ -1817,7 +1901,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -1830,6 +1914,9 @@
       <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E28" s="7">
+        <v>0.112</v>
+      </c>
       <c r="F28" t="s">
         <v>62</v>
       </c>
@@ -1837,7 +1924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -1850,6 +1937,9 @@
       <c r="D29" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E29" s="7">
+        <v>0.112</v>
+      </c>
       <c r="F29" t="s">
         <v>62</v>
       </c>
@@ -1857,7 +1947,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -1870,6 +1960,9 @@
       <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E30" s="7">
+        <v>0.112</v>
+      </c>
       <c r="F30" t="s">
         <v>62</v>
       </c>
@@ -1877,7 +1970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1890,6 +1983,9 @@
       <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="E31" s="7">
+        <v>0.108</v>
+      </c>
       <c r="F31" t="s">
         <v>62</v>
       </c>
@@ -1897,7 +1993,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -1910,6 +2006,9 @@
       <c r="D32" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="E32" s="7">
+        <v>0.108</v>
+      </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
@@ -1917,7 +2016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1930,6 +2029,9 @@
       <c r="D33" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="E33" s="7">
+        <v>0.108</v>
+      </c>
       <c r="F33" t="s">
         <v>62</v>
       </c>
@@ -1937,7 +2039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1950,6 +2052,9 @@
       <c r="D34" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="E34" s="7">
+        <v>0.112</v>
+      </c>
       <c r="F34" t="s">
         <v>62</v>
       </c>
@@ -1957,7 +2062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1970,6 +2075,9 @@
       <c r="D35" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E35" s="7">
+        <v>0.104</v>
+      </c>
       <c r="F35" t="s">
         <v>40</v>
       </c>
@@ -1977,7 +2085,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1990,6 +2098,9 @@
       <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E36" s="7">
+        <v>0.104</v>
+      </c>
       <c r="F36" t="s">
         <v>40</v>
       </c>
@@ -1997,7 +2108,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2010,6 +2121,9 @@
       <c r="D37" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E37" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="F37" t="s">
         <v>62</v>
       </c>
@@ -2017,7 +2131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2030,6 +2144,9 @@
       <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E38" s="7">
+        <v>0.104</v>
+      </c>
       <c r="F38" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2154,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2050,6 +2167,9 @@
       <c r="D39" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E39" s="7">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="F39" t="s">
         <v>62</v>
       </c>
@@ -2057,7 +2177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2070,6 +2190,9 @@
       <c r="D40" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E40" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="F40" t="s">
         <v>62</v>
       </c>
@@ -2077,7 +2200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2090,6 +2213,9 @@
       <c r="D41" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E41" s="7">
+        <v>0.104</v>
+      </c>
       <c r="F41" t="s">
         <v>62</v>
       </c>
@@ -2097,7 +2223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2110,6 +2236,9 @@
       <c r="D42" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E42" s="7">
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="F42" t="s">
         <v>101</v>
       </c>
@@ -2117,7 +2246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -2130,6 +2259,9 @@
       <c r="D43" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E43" s="7">
+        <v>0.66800000000000004</v>
+      </c>
       <c r="F43" t="s">
         <v>101</v>
       </c>
@@ -2137,7 +2269,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2150,6 +2282,9 @@
       <c r="D44" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="E44" s="7">
+        <v>0.108</v>
+      </c>
       <c r="F44" t="s">
         <v>100</v>
       </c>
@@ -2157,7 +2292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2170,6 +2305,9 @@
       <c r="D45" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E45" s="7">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="F45" t="s">
         <v>62</v>
       </c>
@@ -2177,7 +2315,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -2190,6 +2328,9 @@
       <c r="D46" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E46" s="7">
+        <v>0.29199999999999998</v>
+      </c>
       <c r="F46" t="s">
         <v>62</v>
       </c>
@@ -2197,7 +2338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2210,6 +2351,9 @@
       <c r="D47" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="E47" s="7">
+        <v>0.108</v>
+      </c>
       <c r="F47" t="s">
         <v>110</v>
       </c>
@@ -2217,7 +2361,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2230,6 +2374,9 @@
       <c r="D48" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="E48" s="7">
+        <v>0.20399999999999999</v>
+      </c>
       <c r="F48" t="s">
         <v>110</v>
       </c>
@@ -2237,7 +2384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>112</v>
       </c>
@@ -2250,6 +2397,9 @@
       <c r="D49" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="E49" s="7">
+        <v>0.70599999999999996</v>
+      </c>
       <c r="F49" t="s">
         <v>116</v>
       </c>
@@ -2257,7 +2407,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -2270,6 +2420,9 @@
       <c r="D50" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="E50" s="7">
+        <v>0.15</v>
+      </c>
       <c r="F50" t="s">
         <v>119</v>
       </c>
@@ -2277,7 +2430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -2290,6 +2443,9 @@
       <c r="D51" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="E51" s="7">
+        <v>0.65</v>
+      </c>
       <c r="F51" t="s">
         <v>124</v>
       </c>
@@ -2297,7 +2453,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>125</v>
       </c>
@@ -2310,6 +2466,9 @@
       <c r="D52" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E52" s="9">
+        <v>0.72</v>
+      </c>
       <c r="F52" t="s">
         <v>141</v>
       </c>
@@ -2317,7 +2476,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>126</v>
       </c>
@@ -2337,7 +2496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -2357,7 +2516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -2377,7 +2536,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -2397,7 +2556,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -2417,7 +2576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -2430,6 +2589,9 @@
       <c r="D58" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E58" s="7">
+        <v>2.0699999999999998</v>
+      </c>
       <c r="F58" t="s">
         <v>117</v>
       </c>
@@ -2437,7 +2599,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>132</v>
       </c>
@@ -2450,6 +2612,9 @@
       <c r="D59" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E59" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F59" t="s">
         <v>144</v>
       </c>
@@ -2457,7 +2622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -2470,6 +2635,9 @@
       <c r="D60" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E60" s="7">
+        <v>1.2</v>
+      </c>
       <c r="F60" t="s">
         <v>144</v>
       </c>
@@ -2477,7 +2645,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -2490,6 +2658,9 @@
       <c r="D61" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E61" s="7">
+        <v>1.2</v>
+      </c>
       <c r="F61" t="s">
         <v>144</v>
       </c>
@@ -2497,7 +2668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -2510,6 +2681,9 @@
       <c r="D62" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E62" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F62" t="s">
         <v>144</v>
       </c>
@@ -2517,7 +2691,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>136</v>
       </c>
@@ -2530,6 +2704,9 @@
       <c r="D63" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E63" s="7">
+        <v>0.8</v>
+      </c>
       <c r="F63" t="s">
         <v>144</v>
       </c>
@@ -2537,7 +2714,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -2550,6 +2727,9 @@
       <c r="D64" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="E64" s="7">
+        <v>0.316</v>
+      </c>
       <c r="F64" t="s">
         <v>25</v>
       </c>
@@ -2557,7 +2737,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>149</v>
       </c>
@@ -2570,6 +2750,9 @@
       <c r="D65" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="E65" s="7">
+        <v>0.20399999999999999</v>
+      </c>
       <c r="F65" t="s">
         <v>110</v>
       </c>
@@ -2577,7 +2760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>152</v>
       </c>
@@ -2590,6 +2773,9 @@
       <c r="D66" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="E66" s="7">
+        <v>0.30399999999999999</v>
+      </c>
       <c r="F66" t="s">
         <v>110</v>
       </c>
@@ -2597,7 +2783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>154</v>
       </c>
@@ -2610,6 +2796,9 @@
       <c r="D67" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="E67" s="7">
+        <v>1.6836</v>
+      </c>
       <c r="F67" t="s">
         <v>110</v>
       </c>
@@ -2617,7 +2806,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -2630,6 +2819,9 @@
       <c r="D68" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="E68" s="7">
+        <v>0.22800000000000001</v>
+      </c>
       <c r="F68" t="s">
         <v>110</v>
       </c>
@@ -2637,7 +2829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -2650,6 +2842,9 @@
       <c r="D69" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="E69" s="7">
+        <v>1.143</v>
+      </c>
       <c r="F69" t="s">
         <v>163</v>
       </c>
@@ -2657,7 +2852,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -2670,6 +2865,9 @@
       <c r="D70" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="E70" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F70" t="s">
         <v>167</v>
       </c>
@@ -2677,7 +2875,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -2690,6 +2888,9 @@
       <c r="D71" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="E71" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="F71" t="s">
         <v>170</v>
       </c>
@@ -2697,7 +2898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>171</v>
       </c>
@@ -2710,6 +2911,9 @@
       <c r="D72" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="E72" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F72" t="s">
         <v>174</v>
       </c>
@@ -2717,7 +2921,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>175</v>
       </c>
@@ -2730,6 +2934,9 @@
       <c r="D73" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E73" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F73" t="s">
         <v>174</v>
       </c>
@@ -2737,7 +2944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>178</v>
       </c>
@@ -2750,6 +2957,9 @@
       <c r="D74" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E74" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F74" t="s">
         <v>174</v>
       </c>
@@ -2757,7 +2967,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>179</v>
       </c>
@@ -2770,6 +2980,9 @@
       <c r="D75" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E75" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F75" t="s">
         <v>174</v>
       </c>
@@ -2777,7 +2990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>180</v>
       </c>
@@ -2790,6 +3003,9 @@
       <c r="D76" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E76" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F76" t="s">
         <v>174</v>
       </c>
@@ -2797,7 +3013,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>181</v>
       </c>
@@ -2810,6 +3026,9 @@
       <c r="D77" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E77" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F77" t="s">
         <v>174</v>
       </c>
@@ -2817,7 +3036,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -2830,6 +3049,9 @@
       <c r="D78" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E78" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F78" t="s">
         <v>174</v>
       </c>
@@ -2837,7 +3059,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>183</v>
       </c>
@@ -2850,6 +3072,9 @@
       <c r="D79" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E79" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F79" t="s">
         <v>174</v>
       </c>
@@ -2857,7 +3082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>184</v>
       </c>
@@ -2870,6 +3095,9 @@
       <c r="D80" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E80" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F80" t="s">
         <v>174</v>
       </c>
@@ -2877,7 +3105,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -2890,6 +3118,9 @@
       <c r="D81" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E81" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F81" t="s">
         <v>174</v>
       </c>
@@ -2897,7 +3128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>186</v>
       </c>
@@ -2910,6 +3141,9 @@
       <c r="D82" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E82" s="8">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F82" t="s">
         <v>174</v>
       </c>
@@ -2917,7 +3151,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -2930,6 +3164,9 @@
       <c r="D83" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E83" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F83" t="s">
         <v>174</v>
       </c>
@@ -2937,7 +3174,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>188</v>
       </c>
@@ -2950,6 +3187,9 @@
       <c r="D84" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E84" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F84" t="s">
         <v>174</v>
       </c>
@@ -2957,7 +3197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>189</v>
       </c>
@@ -2970,6 +3210,9 @@
       <c r="D85" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E85" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F85" t="s">
         <v>174</v>
       </c>
@@ -2977,7 +3220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -2990,6 +3233,9 @@
       <c r="D86" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E86" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F86" t="s">
         <v>174</v>
       </c>
@@ -2997,7 +3243,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>191</v>
       </c>
@@ -3010,6 +3256,9 @@
       <c r="D87" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E87" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F87" t="s">
         <v>174</v>
       </c>
@@ -3017,7 +3266,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -3030,6 +3279,9 @@
       <c r="D88" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E88" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F88" t="s">
         <v>174</v>
       </c>
@@ -3037,7 +3289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -3050,6 +3302,9 @@
       <c r="D89" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E89" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F89" t="s">
         <v>174</v>
       </c>
@@ -3057,7 +3312,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -3070,6 +3325,9 @@
       <c r="D90" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E90" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F90" t="s">
         <v>174</v>
       </c>
@@ -3077,7 +3335,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>195</v>
       </c>
@@ -3090,6 +3348,9 @@
       <c r="D91" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E91" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F91" t="s">
         <v>174</v>
       </c>
@@ -3097,7 +3358,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>196</v>
       </c>
@@ -3110,6 +3371,9 @@
       <c r="D92" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E92" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F92" t="s">
         <v>174</v>
       </c>
@@ -3117,7 +3381,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>197</v>
       </c>
@@ -3130,6 +3394,9 @@
       <c r="D93" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E93" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F93" t="s">
         <v>174</v>
       </c>
@@ -3137,7 +3404,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>198</v>
       </c>
@@ -3150,6 +3417,9 @@
       <c r="D94" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="E94" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F94" t="s">
         <v>174</v>
       </c>
@@ -3157,7 +3427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>199</v>
       </c>
@@ -3170,6 +3440,9 @@
       <c r="D95" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E95" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F95" t="s">
         <v>209</v>
       </c>
@@ -3177,7 +3450,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>200</v>
       </c>
@@ -3190,6 +3463,9 @@
       <c r="D96" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E96" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F96" t="s">
         <v>209</v>
       </c>
@@ -3197,7 +3473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -3210,6 +3486,9 @@
       <c r="D97" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E97" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F97" t="s">
         <v>209</v>
       </c>
@@ -3217,7 +3496,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -3230,6 +3509,9 @@
       <c r="D98" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E98" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F98" t="s">
         <v>209</v>
       </c>
@@ -3237,7 +3519,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -3250,6 +3532,9 @@
       <c r="D99" s="1" t="s">
         <v>173</v>
       </c>
+      <c r="E99" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F99" t="s">
         <v>174</v>
       </c>
@@ -3257,7 +3542,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -3270,6 +3555,9 @@
       <c r="D100" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E100" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F100" t="s">
         <v>209</v>
       </c>
@@ -3277,7 +3565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>205</v>
       </c>
@@ -3290,6 +3578,9 @@
       <c r="D101" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E101" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F101" t="s">
         <v>209</v>
       </c>
@@ -3297,7 +3588,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -3310,6 +3601,9 @@
       <c r="D102" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E102" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F102" t="s">
         <v>209</v>
       </c>
@@ -3317,7 +3611,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>210</v>
       </c>
@@ -3330,6 +3624,9 @@
       <c r="D103" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="E103" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
       <c r="F103" t="s">
         <v>216</v>
       </c>
@@ -3337,7 +3634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>211</v>
       </c>
@@ -3350,6 +3647,9 @@
       <c r="D104" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="E104" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
       <c r="F104" t="s">
         <v>170</v>
       </c>
@@ -3357,7 +3657,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>212</v>
       </c>
@@ -3370,6 +3670,9 @@
       <c r="D105" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="E105" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="F105" t="s">
         <v>216</v>
       </c>
@@ -3377,7 +3680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>213</v>
       </c>
@@ -3390,6 +3693,9 @@
       <c r="D106" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="E106" s="7">
+        <v>0.04</v>
+      </c>
       <c r="F106" t="s">
         <v>209</v>
       </c>
@@ -3397,7 +3703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>229</v>
       </c>
@@ -3410,6 +3716,9 @@
       <c r="D107" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E107" s="7">
+        <v>0.71</v>
+      </c>
       <c r="F107" t="s">
         <v>222</v>
       </c>
@@ -3417,7 +3726,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>228</v>
       </c>
@@ -3430,6 +3739,9 @@
       <c r="D108" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="E108" s="7">
+        <v>14.759600000000001</v>
+      </c>
       <c r="F108" t="s">
         <v>227</v>
       </c>
@@ -3437,7 +3749,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>230</v>
       </c>
@@ -3450,6 +3762,9 @@
       <c r="D109" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="E109" s="7">
+        <v>0.2324</v>
+      </c>
       <c r="F109" t="s">
         <v>234</v>
       </c>
@@ -3457,7 +3772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>235</v>
       </c>
@@ -3470,6 +3785,9 @@
       <c r="D110" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="E110" s="7">
+        <v>0.2346</v>
+      </c>
       <c r="F110" t="s">
         <v>238</v>
       </c>
@@ -3477,7 +3795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>239</v>
       </c>
@@ -3490,6 +3808,9 @@
       <c r="D111" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E111" s="7">
+        <v>8.9734999999999996</v>
+      </c>
       <c r="F111" t="s">
         <v>243</v>
       </c>
@@ -3497,7 +3818,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>245</v>
       </c>
@@ -3510,11 +3831,14 @@
       <c r="D112" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="E112" s="7">
+        <v>2.8058000000000001</v>
+      </c>
       <c r="G112" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>249</v>
       </c>
@@ -3527,6 +3851,9 @@
       <c r="D113" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E113" s="7">
+        <v>5.8</v>
+      </c>
       <c r="F113" t="s">
         <v>250</v>
       </c>
@@ -3537,7 +3864,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>253</v>
       </c>
@@ -3550,6 +3877,9 @@
       <c r="D114" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E114" s="7">
+        <v>2.94</v>
+      </c>
       <c r="F114" t="s">
         <v>257</v>
       </c>
@@ -3560,7 +3890,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>258</v>
       </c>
@@ -3573,6 +3903,9 @@
       <c r="D115" s="1" t="s">
         <v>261</v>
       </c>
+      <c r="E115" s="7">
+        <v>4.1885000000000003</v>
+      </c>
       <c r="F115" t="s">
         <v>262</v>
       </c>
@@ -3580,7 +3913,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>263</v>
       </c>
@@ -3593,6 +3926,9 @@
       <c r="D116" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="E116" s="7">
+        <v>21</v>
+      </c>
       <c r="F116" t="s">
         <v>266</v>
       </c>
@@ -3600,7 +3936,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>267</v>
       </c>
@@ -3613,6 +3949,9 @@
       <c r="D117" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="E117" s="7">
+        <v>0.88700000000000001</v>
+      </c>
       <c r="F117" t="s">
         <v>272</v>
       </c>
@@ -3620,7 +3959,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>268</v>
       </c>
@@ -3633,6 +3972,9 @@
       <c r="D118" s="1" t="s">
         <v>274</v>
       </c>
+      <c r="E118" s="7">
+        <v>0.94</v>
+      </c>
       <c r="F118" t="s">
         <v>275</v>
       </c>
@@ -3640,7 +3982,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
         <v>117</v>
       </c>
@@ -3761,21 +4103,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A026355BAD2274782A07C8F49662C6C" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb6eea23527ae3a2f4369f132760501b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="21dd6821-497d-487e-9974-da04441ecaef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3478fcf4c6a9925f36af177c8bf0c567" ns3:_="">
     <xsd:import namespace="21dd6821-497d-487e-9974-da04441ecaef"/>
@@ -3907,31 +4234,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD7D0BB-8B92-4CB9-B3D0-89246867E7A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="21dd6821-497d-487e-9974-da04441ecaef"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945E74FF-CF67-48D5-9BFC-8913C1D8D26C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4231A569-AFE9-4217-B34A-0C0809A85203}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3947,4 +4265,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{945E74FF-CF67-48D5-9BFC-8913C1D8D26C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AD7D0BB-8B92-4CB9-B3D0-89246867E7A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="21dd6821-497d-487e-9974-da04441ecaef"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>